--- a/-職位資料爬蟲.xlsx
+++ b/-職位資料爬蟲.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC6"/>
+  <dimension ref="A1:AC21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -583,88 +583,80 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>良瑋企業社</t>
+          <t>新中國際網路報業有限公司</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>行政人員</t>
+          <t>工讀生</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.104.com.tw/job/6ua3l?jobsource=jolist_b_date</t>
+          <t>https://www.104.com.tw/job/7w9hc?jobsource=jolist_d_relevance</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>行政人員</t>
+          <t>工讀生</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>行政人員,行政助理</t>
+          <t>行政助理,工讀生</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>月薪26,400元以上</t>
+          <t>時薪176元</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>月薪</t>
+          <t>時薪</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>26,400</t>
+          <t>176</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>無上限</t>
+          <t>176</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>全職</t>
+          <t>兼職 - 長期工讀、短期工讀</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>嘉義市國華街245號</t>
+          <t>台北市中正區博愛路25號8樓之14</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>不需負擔管理責任</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>無需出差外派</t>
-        </is>
-      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>日班/晚班/大夜班/假日班</t>
+          <t>日班，9:00~18:00，9:00-17:00, 9:00-16:30</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>週休二日</t>
+          <t>依公司規定</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>不限</t>
+          <t>一週內</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>1~2人</t>
+          <t>1~4人</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -679,7 +671,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>不拘</t>
+          <t>高中、專科、大學</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -687,8 +679,16 @@
           <t>不拘</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Excel,Word</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>行政事務處理,電話接聽與人員接待事項,文件或資料輸入建檔處理</t>
+        </is>
+      </c>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
@@ -698,32 +698,32 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>坦德科技股份有限公司</t>
+          <t>日升寵物概念館_五心興業有限公司</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>作業員(作四休二)(冷氣廠房)</t>
+          <t>寵物門市銷售員  (備汽車駕照)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.104.com.tw/job/4k130?jobsource=jolist_b_date</t>
+          <t>https://www.104.com.tw/job/7n961?jobsource=jolist_d_relevance</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>作業員(作四休二)(冷氣廠房)</t>
+          <t>寵物門市銷售員  (備汽車駕照)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>作業員／包裝員,其他機械操作員,手工包裝工及有關工作者</t>
+          <t>門市／店員／專櫃人員,儲備幹部,店長／賣場管理人員</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>月薪30,000~55,000元</t>
+          <t>月薪34,000元以上</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -733,12 +733,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>30,000</t>
+          <t>34,000</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>55,000</t>
+          <t>無上限</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -748,13 +748,13 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>雲林縣斗六市榴南里斗工九路8號</t>
+          <t>台中市豐原區圓環東路839號</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>不需負擔管理責任</t>
+          <t>管理5-8人</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>日班/晚班</t>
+          <t>日班/晚班，需輪班</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -779,12 +779,12 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>1~4人</t>
+          <t>不限</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>不拘</t>
+          <t>中文</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -804,45 +804,45 @@
       </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>普通小型車</t>
+        </is>
+      </c>
       <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>勞保,健保,陪產假,產假,特別休假,育嬰留停,女性生理假,勞退提撥金,產檢假,就業保險,員工體檢,職災保險</t>
-        </is>
-      </c>
+      <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>盛馳行銷有限公司</t>
+          <t>品學企業社</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>內勤電訪人員</t>
+          <t>週刊展示人員</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.104.com.tw/job/7kyrt?jobsource=jolist_b_date</t>
+          <t>https://www.104.com.tw/job/69vm6?jobsource=jolist_d_relevance</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>內勤電訪人員</t>
+          <t>週刊展示人員</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>其他客戶服務人員,電話行銷人員,電話客服類人員</t>
+          <t>門市／店員／專櫃人員,通路開發人員,國內業務人員</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>月薪28,000~40,000元</t>
+          <t>月薪26,400~31,000元</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -852,12 +852,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>28,000</t>
+          <t>26,400</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>40,000</t>
+          <t>31,000</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>新北市中和區橋和路122號10樓之1(橋和站步行3分鐘)</t>
+          <t>新北市新莊區後港一路49巷1弄15號</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -883,12 +883,12 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>日班，09:00~18:00</t>
+          <t>日班，6:20~3:00</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>週休二日</t>
+          <t>依公司規定</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -898,7 +898,7 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>不限</t>
+          <t>1~2人</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -925,68 +925,39 @@
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>週休二日,勞保,健保,特別休假,勞退提撥金</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>年終獎金,三節獎金/禮品,零食櫃,退職金提撥,國內旅遊,國外旅遊,部門聚餐,免費下午茶,下午茶,優於勞基法特休</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">法定項目
-勞保/健保/週休二日
-福利制度
-獎金類：年終獎金/全勤獎金/激勵獎金/每月績效獎金/團隊獎金
-娛樂類：國內旅遊/國外旅遊/員工聚餐/尾牙/免費下午茶
-法定保障
-勞保、健保、新制退休金提撥、生理假、產假、育嬰假
-福利制度
-休假制度 ：週休二日
-獎金制度 ：三節禮金
-補助津貼 ：旅遊補助
-休閒娛樂 ：國內員工旅遊、國外員工旅遊/尾牙/春酒/不定期餐敘
-其他福利 ：完善教育訓練
-交通便利 ：鄰近捷運中和橋和站(走路約三分鐘)
-【發展】
-機會多，管道透明
-百萬年薪不是夢～理解每位夥伴的職涯規劃，依專長適性發展，在工作中找到自己的成長目標。
-</t>
-        </is>
-      </c>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>好生活國際企業股份有限公司</t>
+          <t>Windmill Pet風車寵物生活館_員力國際有限公司</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>行政助理</t>
+          <t>貓樂貓咖啡 正職人員-台中東區三井LALAPORT店</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.104.com.tw/job/748ub?jobsource=jolist_b_date</t>
+          <t>https://www.104.com.tw/job/7x6sz?jobsource=jolist_d_relevance</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>行政助理</t>
+          <t>貓樂貓咖啡 正職人員-台中東區三井LALAPORT店</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>業務助理,行政人員,行政助理</t>
+          <t>餐飲服務生,門市／店員／專櫃人員,調酒師／吧台人員</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>月薪28,000~36,000元</t>
+          <t>月薪37,000~42,000元</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -996,12 +967,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>28,000</t>
+          <t>37,000</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>36,000</t>
+          <t>42,000</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1011,7 +982,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>桃園市中壢區東林街31號</t>
+          <t>台中市東區進德路600號</t>
         </is>
       </c>
       <c r="L5" t="inlineStr"/>
@@ -1027,22 +998,22 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>日班</t>
+          <t>日班，時段面議，需輪班</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>週休二日</t>
+          <t>依公司規定</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>不限</t>
+          <t>兩週內</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>不限</t>
+          <t>2~3人</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -1057,7 +1028,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>高中、專科、大學</t>
+          <t>高中以上</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -1065,21 +1036,13 @@
           <t>不拘</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>Excel,PowerPoint,Word,Illustrator</t>
-        </is>
-      </c>
+      <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr">
         <is>
-          <t>文件收發與檔案管理,文書處理╱排版能力,行政事務處理,報表彙整與管理,電話接聽與人員接待事項,文件或資料輸入建檔處理,文件檔案資料處理、轉換及整合工作,客戶資料更新維護,客訴案件處理</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>輕型機車、普通小型車</t>
-        </is>
-      </c>
+          <t>櫃檯門市接待與需求服務,產品介紹及解說銷售,飲料調製,吧台前置作業準備,門市餐飲管理,食材貯存管理,食物製前準備,廚房設備維護管理,廚房器具使用維護</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
@@ -1088,32 +1051,32 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>享興企業社</t>
+          <t>天天有魚優質生活有限公司</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>35K↑媒體宣傳業務</t>
+          <t>業務拓展專員</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.104.com.tw/job/7u75l?jobsource=jolist_b_date</t>
+          <t>https://www.104.com.tw/job/7yc52?jobsource=jolist_d_relevance</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>35K↑媒體宣傳業務</t>
+          <t>業務拓展專員</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>國內業務人員,通路開發人員,產品行銷人員</t>
+          <t>產品行銷人員,通路開發人員,行銷企劃助理</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>月薪35,000~45,000元</t>
+          <t>月薪30,000~38,000元</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1123,12 +1086,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>35,000</t>
+          <t>30,000</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>45,000</t>
+          <t>38,000</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1138,38 +1101,38 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>台北市中山區天祥路</t>
+          <t>台北市中山區中山北路2段116巷5號1樓</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>不需負擔管理責任</t>
+          <t>管理4人以下</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>無需出差外派</t>
+          <t>需出差，一年累積時間約一個月以下</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>日班/晚班，(下午一點後)</t>
+          <t>日班/假日班</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>依公司規定</t>
+          <t>週休二日</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>可年後上班</t>
+          <t>一個月內</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>1~5人</t>
+          <t>1~2人</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -1179,12 +1142,12 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>不拘</t>
+          <t>3年以上</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>高中以上</t>
+          <t>不拘</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -1194,20 +1157,1934 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>中文打字20~50</t>
+          <t>Excel,Outlook,PowerPoint</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>廣告製作規劃與執行,社群媒體經營管理,業務或通路開發</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr"/>
+          <t>業務或通路開發,業績與管理報表撰寫,客戶情報蒐集,產品介紹及解說銷售</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>輕型機車</t>
+        </is>
+      </c>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr"/>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>星妍企業社</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>美妍助理</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/7fii1?jobsource=jolist_d_relevance</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>美妍助理</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>美容類助理,美療／芳療師,美髮類助理</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>月薪33,000元以上</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>月薪</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>33,000</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>無上限</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>全職</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>台北市大安區北市捷運沿線門市</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>不需負擔管理責任</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>無需出差外派</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>日班/晚班，固定班制：共有   A 12~20   B 13~21   C 14~22    自選班制固定，無須輪班。</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>週休二日</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>兩週內</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>不限</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>週休二日,勞保,健保</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>員工紅利,員工認股,入股分紅,年終獎金,三節獎金/禮品,特殊節日獎金禮品,員工餐廳,零食櫃,咖啡吧,員工舒壓按摩,生活工作諮詢,生日假,結婚禮金,國內旅遊,國外旅遊,部門聚餐,慶生會,員工優惠,下午茶,電影觀賞,優於勞基法特休</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>大漢當舖</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>業務專員</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/7sq6g?jobsource=jolist_d_relevance</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>業務專員</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>國內業務人員</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>月薪30,000元以上</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>月薪</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>30,000</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>無上限</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>全職</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>桃園市平鎮區民族路149號</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>不需負擔管理責任</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>無需出差外派</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>日班/晚班，依公司規定、白天班、晚班 AM 9:00~PM 5:00 晚班14:00-22:00</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>依公司規定</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>不限</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>不限</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>弘友股份有限公司</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>36000堆高機操作員~彰化分公司招聘 (需有執照者)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/80bey?jobsource=jolist_d_relevance</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>36000堆高機操作員~彰化分公司招聘 (需有執照者)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>倉儲物流人員,倉管</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>月薪36,000元以上</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>月薪</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>36,000</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>無上限</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>全職</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>彰化縣芬園鄉大埔村彰南路四段792巷146號(國道3號烏日交流道往南出口續環中路直行，過旱溪跨越二座橋後第一座紅綠燈左轉5公里右第一廠房即達)</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>不需負擔管理責任</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>無需出差外派</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>日班</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>週休二日</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>一週內</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>1人</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>1年以上</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>高中以下、高中、專科、大學</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>堆高機操作技術士</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>伊勢登空調_益合電器有限公司</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>行政人員</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/7lti0?jobsource=jolist_d_relevance</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>行政人員</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>月薪30,000元以上</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>月薪</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>30,000</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>無上限</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>全職</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>桃園市中壢區中正路1043之1號</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>不需負擔管理責任</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>無需出差外派</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>日班</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>依公司規定</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>一個月內</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>1~2人</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>1年以上</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Word,中文打字50~75</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>輕型機車</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>商井物產商號</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>客服人員（早班）</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/80p9k?jobsource=jolist_d_relevance</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>客服人員（早班）</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>其他客戶服務人員</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>月薪30,000~35,000元</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>月薪</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>30,000</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>35,000</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>全職</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>台北市大安區忠孝敦化站附近</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>不需負擔管理責任</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>無需出差外派</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>日班/晚班，早班 7:00am-3:00pm、午班 3:00pm-11:00、晚班11:00pm -7:00 am</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>週休二日</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>不限</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>1~2人</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Excel,Word</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>勞保,健保,特別休假,勞退提撥金</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>年終獎金</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>勞保/健保/勞退提撥/特休
+年終獎金
+國外旅遊
+績效獎金
+餐補
+全勤獎</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>兆晟數位印刷中心_兆晟影印行</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>印前製作印刷技術人員</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/3ig1s?jobsource=jolist_d_relevance</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>印前製作印刷技術人員</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>印前製作／印刷技術人員,門市／店員／專櫃人員</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>月薪28,000元</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>月薪</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>28,000</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>28,000</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>全職</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>新北市新店區中興路三段217號1F</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>不需負擔管理責任</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>無需出差外派</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>日班，0930-1830</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>依公司規定</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>一週內</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>1~2人</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>普通重型機車</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>宏埔不動產股份有限公司</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>不動產經紀人員(土開普專)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/7mbiu?jobsource=jolist_d_relevance</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>不動產經紀人員(土開普專)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>國內業務人員,不動產經紀人,土地開發人員</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>月薪26,400元以上</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>月薪</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>26,400</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>無上限</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>全職</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>桃園市中壢區龍岡路二段265號</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>不需負擔管理責任</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>無需出差外派</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>日班</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>依公司規定</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>不限</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>1~10人</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>高中、專科、大學、碩士</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>輕型機車、普通小型車</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>港記實業有限公司</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>採購人員(固定週休二日·見紅就休）</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/7eian?jobsource=jolist_d_relevance</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>採購人員(固定週休二日·見紅就休）</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>採購人員,採購助理</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>月薪31,800元以上</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>月薪</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>31,800</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>無上限</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>全職</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>高雄市苓雅區興中一路381號7樓之4</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>不需負擔管理責任</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>無需出差外派</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>日班，09:00~18:00</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>週休二日</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>不限</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>1~2人</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>英文</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>專科以上</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>商業及管理學科類</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>商品採購作業</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>輕型機車、普通重型機車</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>TOEIC (多益測驗)</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>禾明中醫診所</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>診所助理(正職)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/80u5g?jobsource=jolist_d_relevance</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>診所助理(正職)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>診所助理</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>月薪27,500~29,999元</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>月薪</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>27,500</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>29,999</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>全職</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>台中市太平區樹德路235號</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>不需負擔管理責任</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>無需出差外派</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>日班/晚班/假日班，依照門診時間表上班，每周約37小時。週一午2:50-晚9:50; 週二早8:50-12:00, 晚6:20-9:50; 週三早8:50-12:20; 週四午2:50-晚9:50; 週五早8:50-12:00,晚6:20-9:50; 週六早8:50-12:00, 午2:50-6:20。</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>依公司規定</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>不限</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>1人</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>台語</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>高中以下、高中、專科、大學</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Excel,Word</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>勞保,健保,產假,特別休假,勞退提撥金,就業保險,職災保險</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>員工紅利,年終獎金,三節獎金/禮品,特殊節日獎金禮品,醫療輔助,慶生會,員工優惠</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>* 勞基法保障
+1.勞保
+2.健保
+3.勞退金
+4.年休
+5.國定假日 (春節.三節當日固定休假,其餘擇日補休)
+6.休息日加班費、平日加班費
+*禮金
+1.生日禮金
+2.清明節禮金
+3.端午節禮金
+4.中秋節禮金
+5.年終獎金
+*獎金
+1. 全勤獎金
+2. 服務獎金
+*餐敘
+1.尾牙
+2.員工聚餐
+*其他
+1. 提供制服
+2. 員眷看診優待
+3. 每年調漲薪資</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>極緻窗簾_美帆窗飾行</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>業務人員</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/60ew7?jobsource=jolist_d_relevance</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>業務人員</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>國內業務人員,通路開發人員</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>面議</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>面議</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>全職</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>新北市中和區中正路863之3號</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>不需負擔管理責任</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>無需出差外派</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>日班，工作時間彈性(不需打卡)</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>依公司規定</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>不限</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>不限</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>高中以上</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Taipeitoday_品昱服飾行</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>台北TODAY服飾門市人員</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/5vwqw?jobsource=jolist_d_relevance</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>台北TODAY服飾門市人員</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>門市／店員／專櫃人員</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>月薪38,500~100,000元</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>月薪</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>38,500</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>100,000</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>全職</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>台北市萬華區西門里峨眉街28號-3</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>不需負擔管理責任</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>無需出差外派</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>日班</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>依公司規定</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>一週內</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>1~8人</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>勞保,健保,陪產假,產假,特別休假,育嬰留停,勞退提撥金,安胎假,產檢假</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>員工紅利,年終獎金,三節獎金/禮品,特殊節日獎金禮品,不扣薪病假,結婚禮金,生育津貼,部門聚餐,員工優惠,員工團體保險</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>1.各類業務獎金
+2.員工購物優惠
+3.不定期聚餐
+4.春酒活動
+5.業績抽成無上限
+5.每半年一次目標業績達成分紅
+6.薪資都有底薪保障，另外有業績獎金
+7.勞健保+6%勞退</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>越禾企業有限公司</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>客戶響導【固定班，周休二日】</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/7narp?jobsource=jolist_d_relevance</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>客戶響導【固定班，周休二日】</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>門市／店員／專櫃人員,櫃檯接待人員,旅遊休閒類主管</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>月薪38,000~40,000元</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>月薪</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>38,000</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>40,000</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>全職</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>台北市中山區復興北路</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>不需負擔管理責任</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>無需出差外派</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>日班，12:00~22:00</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>週休二日</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>不限</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>不限</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>文件收發與檔案管理,行政事務處理,電話接聽與人員接待事項,文件或資料輸入建檔處理,客戶資料更新維護,客戶情報蒐集,客訴案件處理,櫃檯門市接待與需求服務,產品介紹及解說銷售</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>週休二日,勞保,健保</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>年終獎金,三節獎金/禮品,員工宿舍,員工餐廳,部門聚餐,慶生會,免費下午茶</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>亮閣資產管理股份有限公司</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>項目顧問</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/7vdj5?jobsource=jolist_d_relevance</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>項目顧問</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>國內業務人員,國內業務主管</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>待遇面議</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>面議</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>面議</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>全職</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>台北市萬華區開封街二段</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>不需負擔管理責任</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>無需出差外派</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>日班</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>週休二日</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>不限</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>1~2人</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>中文</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>1年以上</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>業績目標達成,客戶資料更新維護,業務或通路開發,業績與管理報表撰寫,客戶情報蒐集,產品介紹及解說銷售</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>週休二日,勞保,健保</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>員工紅利,零食櫃,咖啡吧,國內旅遊,國外旅遊,部門聚餐,社團活動,特約商店</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>「工作與生活的平衡」是能員工產生歸屬感的方式
+- 當月壽星，準備小驚喜，生日禮金或禮品，當月揭曉
+- 公司每年都會辦業績競賽 ，達標者公司出錢一起出國旅遊
+- 不定期聚餐，旅遊，歡唱等活動
+我們公司強調
+- 反黑箱反獨裁，幫助優秀人才留任
+- 推行團體作戰，經理 主管 員工持續多向溝通與合作，幫助自我超越成長。
+- 零食櫃，讓大家隨時能量滿滿
+我們「追求更好的團隊」
+- 獎金的計算方式，讓團隊有更好的成長跟合作
+- 我們是一群持續追求更好的夥伴，專業、負責
+我們有「舒適的工作空間」是給員工便利的工作環境
+- 工作配備：大螢幕任你挑
+- 舒適明亮的開放式辦公空間，沒有隔間阻礙溝通
+- 鄰近西門町，走路不用十分鐘</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>一點利蔬果股份有限公司</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>晚班工讀打單行政人員</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/6eewc?jobsource=jolist_d_relevance</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>晚班工讀打單行政人員</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>工讀生,行政人員,資料輸入人員</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>時薪176~200元</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>時薪</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>兼職 - 長期工讀</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>台中市北屯區環中路一段365號</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>晚班，PM5:00~PM11:00-PM6:00~PM12:00</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>依公司規定</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>不限</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>不限</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>高中以上</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Excel,Word,中文打字50~75</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>行政事務處理,文件或資料輸入建檔處理</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>勞保,健保,產假,特別休假,育嬰留停,勞退提撥金,就業保險</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>員工紅利,年終獎金,三節獎金/禮品,部門聚餐,伙食津貼,員工團體保險</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>1.保險福利：勞保、健保、團保、6%勞退提撥
+2.獎金福利：年終獎金、績效獎金、全勤獎金、主管獎金
+3.休假福利：符合勞基法之特休天數、陪產假、家庭照顧假、女性同仁生理假&amp;育嬰假
+4.職工福利：結婚禮金、喪病慰問金
+5.其他福利：部門聚餐、春酒聚餐摸彩</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>創傑國際股份有限公司</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>國外業務</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/70h3b?jobsource=jolist_d_relevance</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>國外業務</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>國外業務人員</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>月薪30,000~60,000元</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>月薪</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>30,000</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>全職</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>台北市內湖區陽光街381號7樓</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>不需負擔管理責任</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>無需出差外派</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>日班</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>週休二日</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>不限</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>1~2人</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>英文</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>大學、碩士</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Excel,PowerPoint</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>TOEIC (多益測驗)</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
